--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2511612924408511</v>
+        <v>0.2766389994472205</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.25116129244085106, 'ngram_match_score': 0.1143157599296068, 'weighted_ngram_match_score': 0.12978004677647267, 'syntax_match_score': 0.53125, 'dataflow_match_score': 0.22929936305732485}</t>
+          <t>{'codebleu': 0.2766389994472205, 'ngram_match_score': 0.1143157599296068, 'weighted_ngram_match_score': 0.12978004677647267, 'syntax_match_score': 0.53125, 'dataflow_match_score': 0.33121019108280253}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2766389994472205</v>
+        <v>0.2702695726956281</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2766389994472205, 'ngram_match_score': 0.1143157599296068, 'weighted_ngram_match_score': 0.12978004677647267, 'syntax_match_score': 0.53125, 'dataflow_match_score': 0.33121019108280253}</t>
+          <t>{'codebleu': 0.2702695726956281, 'ngram_match_score': 0.1143157599296068, 'weighted_ngram_match_score': 0.12978004677647267, 'syntax_match_score': 0.53125, 'dataflow_match_score': 0.3057324840764331}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
